--- a/data/hotels_by_city/Houston/Houston_shard_68.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_68.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1724007-Reviews-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-HOUSTON-I-10-EAST.h3180906.Hotel-Information?chkin=7%2F12%2F2018&amp;chkout=7%2F13%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530208707231&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=542c9fa8-5c71-4856-8e67-fb7c4ef2571c&amp;mctc=9&amp;exp_dp=77&amp;exp_ts=1530208707800&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,482 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r435351137-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1724007</t>
+  </si>
+  <si>
+    <t>435351137</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Great Choice</t>
+  </si>
+  <si>
+    <t>We were tired and selected this particular IHW Brand with one day notice.  We were in Houston attending a funeral.  This hotel did not disappoint. Spacious, clean rooms, with a full kitchen and king bed.  This is our new hotel.  Oh yes, Luby's is walking distance across the street.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r362007192-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362007192</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Will not be returning</t>
+  </si>
+  <si>
+    <t>I stayed here for a buisness trip. I chose this hotel because of it's close proximity to the job site I was to be working as well as the fact that I am a platinum elite member with IHG.  First, this is one of the worst locations to stay in Houston, I never felt "safe" the entire time I was here and would not walk anywhere near the hotel.  Second, the maid service was only weekly and then it was done on day 7 of your stay.  Since I only stayed for 8 nights it was sort of pointless.  This is the first place I've ever stayed where maid service was only weekly.  At least come in and empty the trash and make the bed.  The carpets were dirty.  The gym only had some of the equipment working.  The staff at the desk could not give directions and had no recommendations for local places to eat as "I don't live around here".  The laundry is free.  The WIFI worked really well.   Hotel was priced at $120-$140 per night which is average for this area.  Kitchenette was nice.  Please be advised that the candlewood suites are not the same level of quality as the Staybridge suites there is a differrence.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Tammy S, Director of Sales at Candlewood Suites I-10 East, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a buisness trip. I chose this hotel because of it's close proximity to the job site I was to be working as well as the fact that I am a platinum elite member with IHG.  First, this is one of the worst locations to stay in Houston, I never felt "safe" the entire time I was here and would not walk anywhere near the hotel.  Second, the maid service was only weekly and then it was done on day 7 of your stay.  Since I only stayed for 8 nights it was sort of pointless.  This is the first place I've ever stayed where maid service was only weekly.  At least come in and empty the trash and make the bed.  The carpets were dirty.  The gym only had some of the equipment working.  The staff at the desk could not give directions and had no recommendations for local places to eat as "I don't live around here".  The laundry is free.  The WIFI worked really well.   Hotel was priced at $120-$140 per night which is average for this area.  Kitchenette was nice.  Please be advised that the candlewood suites are not the same level of quality as the Staybridge suites there is a differrence.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r339640587-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339640587</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jets win!  Candlewood is a winner too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used my IHG Platinum Elite Rewards points for 4 nites here and were very satisfied and comfortable here.  Weren't in the room all that much , but enjoyed take out dinner in our room the last night.  Easy access to the stadium , local restaurants and in a quiet area . Decent workout facility and free laundry too ( came in handy ). Perfect for the 4 nite stay.  </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r288872596-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288872596</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Candlewood Suite worth the drive!!</t>
+  </si>
+  <si>
+    <t>The room with kitchen was amazing!  King size bed made us sleep like a baby!  The LCD Tv had Direct TV and we enjoyed watching a movie on HBO for free!  We had a full kitchen with granite counter top and dishwasher! However, you don't get to eat breakfast for free if you have a kitchen in your suite.  The bathroom had granite counter top as well and a soak in bathtub to relax in.  Your check in and check out process was smooth and courteous!! Love the area, close to places to eat and shop (about 2 miles or less).  Thanks, Candlewood, would love to reserve a room again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The room with kitchen was amazing!  King size bed made us sleep like a baby!  The LCD Tv had Direct TV and we enjoyed watching a movie on HBO for free!  We had a full kitchen with granite counter top and dishwasher! However, you don't get to eat breakfast for free if you have a kitchen in your suite.  The bathroom had granite counter top as well and a soak in bathtub to relax in.  Your check in and check out process was smooth and courteous!! Love the area, close to places to eat and shop (about 2 miles or less).  Thanks, Candlewood, would love to reserve a room again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r288150098-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288150098</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>BEST CUSTOMER SERVICE FROM ERIC</t>
+  </si>
+  <si>
+    <t>I called on the Thursday prior to our arrival on Friday, I spoke with Eric he was so professional and very informative. We arrived around 10:30 on Friday night, our room was actually what we had reserved. Later that night I went to the front desk to obtain information about Kemah Boardwalk and Eric was on duty once again he was so polite and very informative. Eric needs to be promoted to a Customer Service Specialist. I will return. The hotel was very clean, I guess I was so overwhelmed by Eric's customer service I forgot to rate the hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r262724367-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262724367</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel around 1AM.  I am and IHG member so I used some points to book my room.  We were given a smoking room.  The smell was just horrible.  I didn't book the reservations as a smoking room. We were exhausted from driving and really didn't have the energy to go back downstairs and ask to be switched.   My truck that was parked about 6 spaces from the front entrance of the hotel, was broken in to.  The driver's side lock was punched in and the contents of my center console had been emptied onto the seats.  Fortunately, I do not keep any valuables in my truck.  I did not have time to call the police to make a police report.  Pretty sure I will NOT be staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel around 1AM.  I am and IHG member so I used some points to book my room.  We were given a smoking room.  The smell was just horrible.  I didn't book the reservations as a smoking room. We were exhausted from driving and really didn't have the energy to go back downstairs and ask to be switched.   My truck that was parked about 6 spaces from the front entrance of the hotel, was broken in to.  The driver's side lock was punched in and the contents of my center console had been emptied onto the seats.  Fortunately, I do not keep any valuables in my truck.  I did not have time to call the police to make a police report.  Pretty sure I will NOT be staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r250689192-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250689192</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Never stay here again</t>
+  </si>
+  <si>
+    <t>Booked a Non-Smoking room several weeks in advance.  When I arrived at my room I realized it was a smoking room.  I immediately went back to the desk for assistance to which they showed little or no concern and said they could get me in a non-smoking room the next day.  Did move to another room the next day, However, when I checked out they had upped my room rate by $15/day.  I asked why and the attendant could not explain and said she couldn't do anything about it without speaking to the manager.  I asked to see the form I signed upon checking in, which she provided.  After several attempts to contact the manager, the attendant called and got approval to change the rate.  Hotel was dirty and even the non-smoking room smelled bad.  Will never stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Booked a Non-Smoking room several weeks in advance.  When I arrived at my room I realized it was a smoking room.  I immediately went back to the desk for assistance to which they showed little or no concern and said they could get me in a non-smoking room the next day.  Did move to another room the next day, However, when I checked out they had upped my room rate by $15/day.  I asked why and the attendant could not explain and said she couldn't do anything about it without speaking to the manager.  I asked to see the form I signed upon checking in, which she provided.  After several attempts to contact the manager, the attendant called and got approval to change the rate.  Hotel was dirty and even the non-smoking room smelled bad.  Will never stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r243783109-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243783109</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Spacious, clean, nice.</t>
+  </si>
+  <si>
+    <t>This hotel is located off of I 10 East and is near a lot of different restaurants and stores which was a big convince for us!
+The room istelf was spacious.   The a/c unit was a bit loud but it didn't bother me at all.  I find that noise to be comforting, but some people might find it irritating. The kitchenette came with all of the necessary items.  
+The bed was really comfortable. Initially, I thought it was a little too firm for me; but that changed latter in the night and I slept like a baby my whole stay. The pillows and blankets were amazing!....they were both super fluffy and soft!  
+The tv was set up in the corner of the room, so it was a little weird to be watching it from an angle.  But they provided Direct TV instead of the usual crappy basic cable stations like from other hotels.  
+The restroom was small.  When the restroom door was open, there was not much room to move around the sink/vanity area.  Some of the cabinets and drawers couldn't open because they would hit the door.  The shower itself was large.  I loved that it had an actual door and not a shower curtain.  I found it strange that the water spout in the shower was so low to the floor, maybe like 6 inches from the floor?? The toilet had very low water pressure.  We would flush,...This hotel is located off of I 10 East and is near a lot of different restaurants and stores which was a big convince for us!The room istelf was spacious.   The a/c unit was a bit loud but it didn't bother me at all.  I find that noise to be comforting, but some people might find it irritating. The kitchenette came with all of the necessary items.  The bed was really comfortable. Initially, I thought it was a little too firm for me; but that changed latter in the night and I slept like a baby my whole stay. The pillows and blankets were amazing!....they were both super fluffy and soft!  The tv was set up in the corner of the room, so it was a little weird to be watching it from an angle.  But they provided Direct TV instead of the usual crappy basic cable stations like from other hotels.  The restroom was small.  When the restroom door was open, there was not much room to move around the sink/vanity area.  Some of the cabinets and drawers couldn't open because they would hit the door.  The shower itself was large.  I loved that it had an actual door and not a shower curtain.  I found it strange that the water spout in the shower was so low to the floor, maybe like 6 inches from the floor?? The toilet had very low water pressure.  We would flush, and the water would run for about 20 minutes before the bowl filled up.  This became a problem when we had to use the restroom consecutively after one another.  If I need to stay around this part of town again, I'd come back to this hotel. It was clean, and I felt safe.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This hotel is located off of I 10 East and is near a lot of different restaurants and stores which was a big convince for us!
+The room istelf was spacious.   The a/c unit was a bit loud but it didn't bother me at all.  I find that noise to be comforting, but some people might find it irritating. The kitchenette came with all of the necessary items.  
+The bed was really comfortable. Initially, I thought it was a little too firm for me; but that changed latter in the night and I slept like a baby my whole stay. The pillows and blankets were amazing!....they were both super fluffy and soft!  
+The tv was set up in the corner of the room, so it was a little weird to be watching it from an angle.  But they provided Direct TV instead of the usual crappy basic cable stations like from other hotels.  
+The restroom was small.  When the restroom door was open, there was not much room to move around the sink/vanity area.  Some of the cabinets and drawers couldn't open because they would hit the door.  The shower itself was large.  I loved that it had an actual door and not a shower curtain.  I found it strange that the water spout in the shower was so low to the floor, maybe like 6 inches from the floor?? The toilet had very low water pressure.  We would flush,...This hotel is located off of I 10 East and is near a lot of different restaurants and stores which was a big convince for us!The room istelf was spacious.   The a/c unit was a bit loud but it didn't bother me at all.  I find that noise to be comforting, but some people might find it irritating. The kitchenette came with all of the necessary items.  The bed was really comfortable. Initially, I thought it was a little too firm for me; but that changed latter in the night and I slept like a baby my whole stay. The pillows and blankets were amazing!....they were both super fluffy and soft!  The tv was set up in the corner of the room, so it was a little weird to be watching it from an angle.  But they provided Direct TV instead of the usual crappy basic cable stations like from other hotels.  The restroom was small.  When the restroom door was open, there was not much room to move around the sink/vanity area.  Some of the cabinets and drawers couldn't open because they would hit the door.  The shower itself was large.  I loved that it had an actual door and not a shower curtain.  I found it strange that the water spout in the shower was so low to the floor, maybe like 6 inches from the floor?? The toilet had very low water pressure.  We would flush, and the water would run for about 20 minutes before the bowl filled up.  This became a problem when we had to use the restroom consecutively after one another.  If I need to stay around this part of town again, I'd come back to this hotel. It was clean, and I felt safe.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r240595963-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240595963</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Not a value at $158. with tax!</t>
+  </si>
+  <si>
+    <t>Beware if you are a non-smoker!  They show $116.00 as an average room rate...all of those rooms are smoking rooms.  There also is no breakfast included.  The room was fine - clean, comfortable beds.  The shower floor (it was a handicapped room) had large cracks by the drain.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites I-10 East, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Beware if you are a non-smoker!  They show $116.00 as an average room rate...all of those rooms are smoking rooms.  There also is no breakfast included.  The room was fine - clean, comfortable beds.  The shower floor (it was a handicapped room) had large cracks by the drain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r224624072-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224624072</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel - Clean - awesome Service</t>
+  </si>
+  <si>
+    <t>great experiencehad to stay there for two weeks - they have a little shop for basic itemsvery cleanfree wi-fi in the roomsgreat service (Especially Marth at the front desk)will definitely stay here again</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r224622937-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224622937</t>
+  </si>
+  <si>
+    <t>had to stay here for two weeks for work - great for the price - very clean - very friendly staff (Especially Martha)had a little store with a few basic itemsvery clean roomsfree wi-fi Would for sure stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r214394899-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214394899</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Comfortable hotel with a few minor points</t>
+  </si>
+  <si>
+    <t>We went to Houston to see the museums and NASA and stayed for two nights at the property. It is easy to get to from the highway but a good 30 min from NASA and 20 min from Downtown museum district.The rooms are quite spacious and the beds were comfortable. The kitchen area is small but gets the basic job done. The cutlery is very limited though - just a few cups, plates, spoons etc. And very few pots and pans as well. Again - no big deal.The bathroom was fine as well but no hand/body lotion. Their is a paid cupboard in the lobby to buy some food and personal hygiene items. The fitness room has 2 treadmills and an elliptical with a multipurpose weight/exercise machine. There is a grocery store - Seller Bros about 0.5 miles away so very convenient as the hotel doesn't serve breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>We went to Houston to see the museums and NASA and stayed for two nights at the property. It is easy to get to from the highway but a good 30 min from NASA and 20 min from Downtown museum district.The rooms are quite spacious and the beds were comfortable. The kitchen area is small but gets the basic job done. The cutlery is very limited though - just a few cups, plates, spoons etc. And very few pots and pans as well. Again - no big deal.The bathroom was fine as well but no hand/body lotion. Their is a paid cupboard in the lobby to buy some food and personal hygiene items. The fitness room has 2 treadmills and an elliptical with a multipurpose weight/exercise machine. There is a grocery store - Seller Bros about 0.5 miles away so very convenient as the hotel doesn't serve breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r207100669-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207100669</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Nice quiet stay.</t>
+  </si>
+  <si>
+    <t>We stayed for a few days while visiting relatives. The hotel room was clean and comfortable. The staff was very friendly. Nice food options near by as well. An added bonus was that the pantry items were reasonably priced.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r201729419-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201729419</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Very nice Candlewood Suites</t>
+  </si>
+  <si>
+    <t>Understand what Candlewood Suites is all about before you book your reservation. Mini apartments basically. Maid service once a week. All the comforts of home. This property is one of the better examples of a Candlewood. Very clean, attentive service, everything in the workout room working properly. Free laundry and a well stocked Candlewood Kitchen. I stay at Candlewoods around the country, this is one of the best.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r188883327-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188883327</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Christmas Delight</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston to share the Christmas holiday with members of her family.  We stayed at this Candlewood Suites hotel and discovered a "pearl".  Located close to a multitude of good restaurants, shopping and direct access to the interstate we were extremely please with our stay.The room was immaculate, even down to the corners, the in room stove, refrigerator and microwave showed absolutely no sign of use or abuse.  The staff was friendly and alert to any of our needs.  This one is a keeper............</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r161017717-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161017717</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Great for business travelers</t>
+  </si>
+  <si>
+    <t>Very large and comfortable room and well equipped kitchen. It gave a home away from home feeling. The staff was pleasant and helpful, got a great restaurant tip and also gave her one that she said she would pass on to ours. Really liked the little store in the lobby and fresh coffee a must. I will be back when my business travels brings me back to Houston</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r159646598-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159646598</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>It does exactly as it says on the tin!</t>
+  </si>
+  <si>
+    <t>Large, very clean room. Seperate bedroom, fully equipped kitchenett, gym and laundry facilities. Good wee selection in lobby pantry with free coffee on tap. Along with free wifi. Only been here 1 night so far but a  must for any trip to Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r154700613-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154700613</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Good Value for the Area</t>
+  </si>
+  <si>
+    <t>Nice, clean , large rooms with full kitchens and seperate bedroom. Pleasant employees and nice all aroubd atmosphere for extended stay. the area is not that great but there are lots of restaurants close by. Its about 15 minutes from downtown easy drive. We will stay here again if an extended stay is needed - to get the good rate of 100.00 bucks a night you have to book and stay for a 30 day minimum - if not they will up the rate to 150 a night...free laundry facility - good gym and nice bbq area NO POOL.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r139352012-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139352012</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>My Extended Family at Candlewood</t>
+  </si>
+  <si>
+    <t>I have stayed at Candlewood enough that the staff have become my friends. I always try to get a room here when working in this area.The rates are reasonable, the rooms are quiet and the area is safe. The atmosphere in the hotel is always upbeat. The grounds look good. The management is exceptional.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r130501976-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130501976</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>TREATED LIKE ROYALTY?</t>
+  </si>
+  <si>
+    <t>Fantastic Place, simply awesome service.Eric , you are legend, you treated us all like your brother, far away above what was required of you.Front desk was always helpful and informative at any time of day or night.The rooms were large and self sufficient.The wifi was quick with no problems.The barbecue area was a real winner when required, "every night"A well stocked food area with complimentary coffee, fruit and cookies.What  more can I say, I wish you guys were British, we shamefully lack behind in all aspects of hospitality.AWsome guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded May 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2012</t>
+  </si>
+  <si>
+    <t>Fantastic Place, simply awesome service.Eric , you are legend, you treated us all like your brother, far away above what was required of you.Front desk was always helpful and informative at any time of day or night.The rooms were large and self sufficient.The wifi was quick with no problems.The barbecue area was a real winner when required, "every night"A well stocked food area with complimentary coffee, fruit and cookies.What  more can I say, I wish you guys were British, we shamefully lack behind in all aspects of hospitality.AWsome guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r129815484-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129815484</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff, awesome rooms, clean, easy on easy off access to IH-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff, awesome rooms, clean, easy on easy off access to IH-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r109582070-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>109582070</t>
+  </si>
+  <si>
+    <t>05/23/2011</t>
+  </si>
+  <si>
+    <t>Basic but clean</t>
+  </si>
+  <si>
+    <t>This is a new property and as such is in excellent condition, and very clean.  As is typical of Candlewood properties, don't expect a free breakfast or a pool - they do not have these here.  Very basic services, but excellent for extended stays due to the full kitchen in each room.  I had no problems during my stay.  The bed was firm but comfortable, there were plenty of HD channels available on the flat screen TV, and the A/C worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded November 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2011</t>
+  </si>
+  <si>
+    <t>This is a new property and as such is in excellent condition, and very clean.  As is typical of Candlewood properties, don't expect a free breakfast or a pool - they do not have these here.  Very basic services, but excellent for extended stays due to the full kitchen in each room.  I had no problems during my stay.  The bed was firm but comfortable, there were plenty of HD channels available on the flat screen TV, and the A/C worked well.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1017,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1049,1493 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>182</v>
+      </c>
+      <c r="X22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_68.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_68.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,88 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r609978424-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1724007</t>
+  </si>
+  <si>
+    <t>609978424</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Very Nice and Well Maintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are very clean. The place is so well kept it almost feels newly built. No strange odors, etc. Beds and linen are in great condition and it’s very surprising quiet. I haven’t even checked out yet and felt compelled to compose this review. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r543236360-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543236360</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Candlewood Done Right</t>
+  </si>
+  <si>
+    <t>Our room was clean, and everything worked well.  Check-in was friendly and efficient, and this property has separate AC for the bedroom and the kitchen/living room.  Better yet, there’s a Luby’s Cafeteria just across the street.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r444149587-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444149587</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Funeral</t>
+  </si>
+  <si>
+    <t>Dec 7-11, 2016
+With less than a week to plan I decided on Candlewood I-10 East in Houston. Upon entry everything was clean, organized, up to date and nicely decorated. Other then issues with the reservations agent which caused somewhat of a major delay in check-in the stay here was pretty good. Martha at the front desk took the time to listen to me and speak with the manager in order to resolve the error with room type. There was a $20+ tax price increase which was ok for the upgrade received (king suite w/pull out sofa &amp; 2 flat screen TVs). Due to the incorrect booking our upgraded room was on the 4th floor (an all smoking floor). After venting the room for about 20 minutes and some febreeze the slight smoke smell was totally gone.
+Kitchen was equipped with full size fridge, 2 burners, pantry, dish washer, pots, skillet, toaster, coffee maker, microwave, and table setting for 4, however there was no oven. If you happened to need a toaster oven, crock pot, etc check out the Lending Locker. Free on-site laundry, great gym, and reasonably priced mini mart could be considered bonuses. I enjoyed the fact that the living room/kitchen area had separate heating &amp; cooling control from the master. My sister confirmed that the pull out was extremely comfortable and she was able to relax in the recliner while channel surfing. Our suite easily had enough...Dec 7-11, 2016With less than a week to plan I decided on Candlewood I-10 East in Houston. Upon entry everything was clean, organized, up to date and nicely decorated. Other then issues with the reservations agent which caused somewhat of a major delay in check-in the stay here was pretty good. Martha at the front desk took the time to listen to me and speak with the manager in order to resolve the error with room type. There was a $20+ tax price increase which was ok for the upgrade received (king suite w/pull out sofa &amp; 2 flat screen TVs). Due to the incorrect booking our upgraded room was on the 4th floor (an all smoking floor). After venting the room for about 20 minutes and some febreeze the slight smoke smell was totally gone.Kitchen was equipped with full size fridge, 2 burners, pantry, dish washer, pots, skillet, toaster, coffee maker, microwave, and table setting for 4, however there was no oven. If you happened to need a toaster oven, crock pot, etc check out the Lending Locker. Free on-site laundry, great gym, and reasonably priced mini mart could be considered bonuses. I enjoyed the fact that the living room/kitchen area had separate heating &amp; cooling control from the master. My sister confirmed that the pull out was extremely comfortable and she was able to relax in the recliner while channel surfing. Our suite easily had enough space for 4.  Although you're located just off the interstate the sound was not an issue. If you need to be close to shopping, restaurants, and churches this is a great location. Headed back to visit with family prior to a cruise Spring 2017 and I have no problem staying here again. Negatives: 1. Reservations agent booked wrong room &amp; never sent email confirmation.2. No daily housekeeping options. On a non-housekeeping days you are responsible for emptying your trash and getting more towels at the front desk if needed. 3. No breakfast, not to worry. Shop at on-site mini mart, Walmart (10 minutes or less) or eat at Luby's across the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dec 7-11, 2016
+With less than a week to plan I decided on Candlewood I-10 East in Houston. Upon entry everything was clean, organized, up to date and nicely decorated. Other then issues with the reservations agent which caused somewhat of a major delay in check-in the stay here was pretty good. Martha at the front desk took the time to listen to me and speak with the manager in order to resolve the error with room type. There was a $20+ tax price increase which was ok for the upgrade received (king suite w/pull out sofa &amp; 2 flat screen TVs). Due to the incorrect booking our upgraded room was on the 4th floor (an all smoking floor). After venting the room for about 20 minutes and some febreeze the slight smoke smell was totally gone.
+Kitchen was equipped with full size fridge, 2 burners, pantry, dish washer, pots, skillet, toaster, coffee maker, microwave, and table setting for 4, however there was no oven. If you happened to need a toaster oven, crock pot, etc check out the Lending Locker. Free on-site laundry, great gym, and reasonably priced mini mart could be considered bonuses. I enjoyed the fact that the living room/kitchen area had separate heating &amp; cooling control from the master. My sister confirmed that the pull out was extremely comfortable and she was able to relax in the recliner while channel surfing. Our suite easily had enough...Dec 7-11, 2016With less than a week to plan I decided on Candlewood I-10 East in Houston. Upon entry everything was clean, organized, up to date and nicely decorated. Other then issues with the reservations agent which caused somewhat of a major delay in check-in the stay here was pretty good. Martha at the front desk took the time to listen to me and speak with the manager in order to resolve the error with room type. There was a $20+ tax price increase which was ok for the upgrade received (king suite w/pull out sofa &amp; 2 flat screen TVs). Due to the incorrect booking our upgraded room was on the 4th floor (an all smoking floor). After venting the room for about 20 minutes and some febreeze the slight smoke smell was totally gone.Kitchen was equipped with full size fridge, 2 burners, pantry, dish washer, pots, skillet, toaster, coffee maker, microwave, and table setting for 4, however there was no oven. If you happened to need a toaster oven, crock pot, etc check out the Lending Locker. Free on-site laundry, great gym, and reasonably priced mini mart could be considered bonuses. I enjoyed the fact that the living room/kitchen area had separate heating &amp; cooling control from the master. My sister confirmed that the pull out was extremely comfortable and she was able to relax in the recliner while channel surfing. Our suite easily had enough space for 4.  Although you're located just off the interstate the sound was not an issue. If you need to be close to shopping, restaurants, and churches this is a great location. Headed back to visit with family prior to a cruise Spring 2017 and I have no problem staying here again. Negatives: 1. Reservations agent booked wrong room &amp; never sent email confirmation.2. No daily housekeeping options. On a non-housekeeping days you are responsible for emptying your trash and getting more towels at the front desk if needed. 3. No breakfast, not to worry. Shop at on-site mini mart, Walmart (10 minutes or less) or eat at Luby's across the streetMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r435351137-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1724007</t>
-  </si>
-  <si>
     <t>435351137</t>
   </si>
   <si>
@@ -177,9 +247,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r362007192-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -228,7 +295,43 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r328260660-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328260660</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Perfect for an extended stay-no frills, but who needs them?</t>
+  </si>
+  <si>
+    <t>We were in room #211 during our stay, a king suite. Room was huge and was very quiet! Comfy bed with nice linens and five pillows. Wall safe, luggage rack, laundry basket to keep your dirty clothes corralled, and an elevator in the hotel so you don't have to climb the stairs.Large lobby with free coffee and tea, cookies and fruit. Two computers/printers in business center. Candlewood Cupboard has snacks and such at fair prices including some breakfast items (there is no free breakfast here). Rooms have fridge and microwaves, as well as dishes, flatware, pots/pans, and a 4-cup coffeemaker.You'll also find 2 rolls of paper towels, liquid dish soap, dishwasher soap, a dish cloth and drying towel, and pot holders. No pool but there is a BBQ grill out back.Erick at the front desk is an asset to the property!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We were in room #211 during our stay, a king suite. Room was huge and was very quiet! Comfy bed with nice linens and five pillows. Wall safe, luggage rack, laundry basket to keep your dirty clothes corralled, and an elevator in the hotel so you don't have to climb the stairs.Large lobby with free coffee and tea, cookies and fruit. Two computers/printers in business center. Candlewood Cupboard has snacks and such at fair prices including some breakfast items (there is no free breakfast here). Rooms have fridge and microwaves, as well as dishes, flatware, pots/pans, and a 4-cup coffeemaker.You'll also find 2 rolls of paper towels, liquid dish soap, dishwasher soap, a dish cloth and drying towel, and pot holders. No pool but there is a BBQ grill out back.Erick at the front desk is an asset to the property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r290699962-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290699962</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Feels like coming home!</t>
+  </si>
+  <si>
+    <t>I have been at this property since April of '014! I don't think I would have lasted that long anywhere else. Staff goes above and beyond what is expected and always greets you with a smile! After this long I consider them all friends. Any issue I have (none due to the fault of anyone, key goes out, door lock goes out) is remedied in short order.If you're in Houston on business on the east side of town or Pasadena this is you go to place.After this long I consider the employees more that necessary but friends as well.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r288872596-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
@@ -282,9 +385,6 @@
     <t>We arrived at this hotel around 1AM.  I am and IHG member so I used some points to book my room.  We were given a smoking room.  The smell was just horrible.  I didn't book the reservations as a smoking room. We were exhausted from driving and really didn't have the energy to go back downstairs and ask to be switched.   My truck that was parked about 6 spaces from the front entrance of the hotel, was broken in to.  The driver's side lock was punched in and the contents of my center console had been emptied onto the seats.  Fortunately, I do not keep any valuables in my truck.  I did not have time to call the police to make a police report.  Pretty sure I will NOT be staying at this hotel again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded April 1, 2015</t>
   </si>
   <si>
@@ -292,6 +392,36 @@
   </si>
   <si>
     <t>We arrived at this hotel around 1AM.  I am and IHG member so I used some points to book my room.  We were given a smoking room.  The smell was just horrible.  I didn't book the reservations as a smoking room. We were exhausted from driving and really didn't have the energy to go back downstairs and ask to be switched.   My truck that was parked about 6 spaces from the front entrance of the hotel, was broken in to.  The driver's side lock was punched in and the contents of my center console had been emptied onto the seats.  Fortunately, I do not keep any valuables in my truck.  I did not have time to call the police to make a police report.  Pretty sure I will NOT be staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r262686736-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262686736</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Staff was friendly and room was perfect.  Could not have asked for anything more.  Very highly recommend this property.  We have stayed there twice and look forward to our next visit.  One of the few hotels left that still offer a room for smokers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was friendly and room was perfect.  Could not have asked for anything more.  Very highly recommend this property.  We have stayed there twice and look forward to our next visit.  One of the few hotels left that still offer a room for smokers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r254044112-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254044112</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Convenient Stay for a traveller on the go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a stopover stay while in route to New Orleans. Rooms were clean and recently updated. Alondra and Liz provided excellent assistance while checking in and recommending places to eat nearby. Only negative is some noise from a nearby interstate. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r250689192-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
@@ -377,6 +507,42 @@
     <t>Beware if you are a non-smoker!  They show $116.00 as an average room rate...all of those rooms are smoking rooms.  There also is no breakfast included.  The room was fine - clean, comfortable beds.  The shower floor (it was a handicapped room) had large cracks by the drain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r237640049-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237640049</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From oct 19 to oct 31 I stayed in this hotel in count of business.  The staff was very friendly always willing to help if needed assist. They have a great place to just relax out back and grill if wanted.. the Gym was nice and the free washer/dryer was a nice touch.. the rooms are a nice size. The bed is comfortable. . </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r231109627-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231109627</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to stay for two weeks for business. It suffices. Nothing over the top but on the other hand it's clean they change towels only twice a week. Pantry stays well stocked and everything in the kitchenette works. I definitely paid more and stayed in worse. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r224624072-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -392,9 +558,6 @@
     <t>great experiencehad to stay there for two weeks - they have a little shop for basic itemsvery cleanfree wi-fi in the roomsgreat service (Especially Marth at the front desk)will definitely stay here again</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r224622937-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -431,6 +594,51 @@
     <t>We went to Houston to see the museums and NASA and stayed for two nights at the property. It is easy to get to from the highway but a good 30 min from NASA and 20 min from Downtown museum district.The rooms are quite spacious and the beds were comfortable. The kitchen area is small but gets the basic job done. The cutlery is very limited though - just a few cups, plates, spoons etc. And very few pots and pans as well. Again - no big deal.The bathroom was fine as well but no hand/body lotion. Their is a paid cupboard in the lobby to buy some food and personal hygiene items. The fitness room has 2 treadmills and an elliptical with a multipurpose weight/exercise machine. There is a grocery store - Seller Bros about 0.5 miles away so very convenient as the hotel doesn't serve breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r214219525-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214219525</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Great experience...</t>
+  </si>
+  <si>
+    <t>Great experience.  Very nice young lady worked the night shift, Meagan. She went above and beyond and was as helpful and friendly as she could be. We will definitely return the next time we are in Houston. Well kept property and again kudos to Meagan... Thank you for all of your help!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great experience.  Very nice young lady worked the night shift, Meagan. She went above and beyond and was as helpful and friendly as she could be. We will definitely return the next time we are in Houston. Well kept property and again kudos to Meagan... Thank you for all of your help!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r211922426-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211922426</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant!</t>
+  </si>
+  <si>
+    <t>My husband was scheduled for surgery and we could not find a hotel in the Medical Center and I booked this hotel after reading reviews on several sites. I'm a bit of a germaphobe and this place amazed me!! The cleanliness was perfect (no dust on lamps or curtains) and when I pulled the sheets back to Lysol the bed I did not see any holes nor stains. I will be booking more rooms with this chain!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Leoncindy, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>My husband was scheduled for surgery and we could not find a hotel in the Medical Center and I booked this hotel after reading reviews on several sites. I'm a bit of a germaphobe and this place amazed me!! The cleanliness was perfect (no dust on lamps or curtains) and when I pulled the sheets back to Lysol the bed I did not see any holes nor stains. I will be booking more rooms with this chain!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r207100669-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -485,6 +693,51 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r166430979-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166430979</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>BEST CANDLEWOOD SUITES!</t>
+  </si>
+  <si>
+    <t>Amazing hotel! Amazing staff! Excellent manager! This is absolutely the best CWS there could be. Everyone goes out their way to make sure you feel at home and you have everything you need! This hotel is not just for extended stay! Even on 1 nighters it's very comfortable! I would stay at this place 100000x times if I could! Rooms are very spacious, flat screens and FREE DVD's to rent! If you haven't stayed at this location you are missing out on GREAT service!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r164485204-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164485204</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Would not spend my own money on this place</t>
+  </si>
+  <si>
+    <t>Traveled to Houston and was referred to this hotel by my client. I have never had good luck with this chain and would not choose it of my own accord.It is fairly cheep, but still not a good value.No coffee in room after first day, no breakfast available. Bed was fine. Shower was weird, not bad, but seemed to be cobbled together with spare parts.Staff was friendly if not clueless.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites I-10 East, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Traveled to Houston and was referred to this hotel by my client. I have never had good luck with this chain and would not choose it of my own accord.It is fairly cheep, but still not a good value.No coffee in room after first day, no breakfast available. Bed was fine. Shower was weird, not bad, but seemed to be cobbled together with spare parts.Staff was friendly if not clueless.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r161017717-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -536,6 +789,48 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r153223291-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153223291</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Nice, but language sometimes was a barrier</t>
+  </si>
+  <si>
+    <t>I think this place has wonderful people working there, but LOTS of requests/questions were literally, "Lost in Translation".  For example, "Where is the nearest ATM?"  They weren't quite sure what an ATM was.  After much back and forth there was an offer that the gas station nearby probably has one, that "likely doesn't work."  NOT helpful!  Getting more towels every week was a huge challenge, as well, although after much discussion that issue was resolved.  Nobody really knew about directions to anywhere other than what was immediately around.    One evening I waited about 10 minutes for a clerk to help me at the front desk.  Where was she?  In the laundry room doing laundry?!The rooms, however, were very clean.  Housekeeping was meticulous.  Service, even with the language barrier, was given with smiles.This hotel is on a side of town that is not considered a "desirable" area.  However, I felt safe at all times here.  Security cameras, and lots of people on site constantly.Considering the area, I would imagine this is the cream of the crop!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I think this place has wonderful people working there, but LOTS of requests/questions were literally, "Lost in Translation".  For example, "Where is the nearest ATM?"  They weren't quite sure what an ATM was.  After much back and forth there was an offer that the gas station nearby probably has one, that "likely doesn't work."  NOT helpful!  Getting more towels every week was a huge challenge, as well, although after much discussion that issue was resolved.  Nobody really knew about directions to anywhere other than what was immediately around.    One evening I waited about 10 minutes for a clerk to help me at the front desk.  Where was she?  In the laundry room doing laundry?!The rooms, however, were very clean.  Housekeeping was meticulous.  Service, even with the language barrier, was given with smiles.This hotel is on a side of town that is not considered a "desirable" area.  However, I felt safe at all times here.  Security cameras, and lots of people on site constantly.Considering the area, I would imagine this is the cream of the crop!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r140125624-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140125624</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Treated Like a Best Friend... :)</t>
+  </si>
+  <si>
+    <t>I've stayed at Candlewood Suites enough that I know them and they know me by first name. I always get treated like I'm their best friend and they want me to have the best rooms at the best prices evey time I stay their. When I go into Houston on business even though my business is on the other side of Houston it's just hard to stay anywhere else. Specially when I try to go other places and they almost act as though your bothering them while they are texting their friends, etc.. When I go to Canclewood Suites I-10 East they drop what ever they are doing to make sure I am waited on promptly. I Love those guys and will continue being a repeat customer as long as they keep that attitude up.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at Candlewood Suites enough that I know them and they know me by first name. I always get treated like I'm their best friend and they want me to have the best rooms at the best prices evey time I stay their. When I go into Houston on business even though my business is on the other side of Houston it's just hard to stay anywhere else. Specially when I try to go other places and they almost act as though your bothering them while they are texting their friends, etc.. When I go to Canclewood Suites I-10 East they drop what ever they are doing to make sure I am waited on promptly. I Love those guys and will continue being a repeat customer as long as they keep that attitude up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r139352012-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -599,6 +894,51 @@
     <t>Friendly, helpful staff, awesome rooms, clean, easy on easy off access to IH-10.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r125935083-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125935083</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>Clean and a good value</t>
+  </si>
+  <si>
+    <t>Very clean and well kept property.Good choice if you're looking for a place to stay on the East side of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean and well kept property.Good choice if you're looking for a place to stay on the East side of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r121168098-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121168098</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>IMPRESSIVE!</t>
+  </si>
+  <si>
+    <t>From the minute I checked it, I realized this not the usual Candlewood. The lobby is bright, clean and the front desk associate was extremely pleasant and friendly. The room (studio) was very spacious and very clean. The bathroom was better than a few full service hotels I've stayed in. The room is equipped with everything someone on an extended trip will need. Everything was good quality and well kept. The bed was comfy and it was very quiet despite being that close to I-10. This is a good choice for short or long trips to the area. There are several restaurants in the area and everyone is eager to help should you need advise on dining or directions.This one just a gold star for being squeaky clean and for having some of the friendliest staff I've encountered at any hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded November 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2011</t>
+  </si>
+  <si>
+    <t>From the minute I checked it, I realized this not the usual Candlewood. The lobby is bright, clean and the front desk associate was extremely pleasant and friendly. The room (studio) was very spacious and very clean. The bathroom was better than a few full service hotels I've stayed in. The room is equipped with everything someone on an extended trip will need. Everything was good quality and well kept. The bed was comfy and it was very quiet despite being that close to I-10. This is a good choice for short or long trips to the area. There are several restaurants in the area and everyone is eager to help should you need advise on dining or directions.This one just a gold star for being squeaky clean and for having some of the friendliest staff I've encountered at any hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1724007-r109582070-Candlewood_Suites_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -615,12 +955,6 @@
   </si>
   <si>
     <t>May 2011</t>
-  </si>
-  <si>
-    <t>CWS1020, General Manager at Candlewood Suites I-10 East, responded to this reviewResponded November 29, 2011</t>
-  </si>
-  <si>
-    <t>Responded November 29, 2011</t>
   </si>
   <si>
     <t>This is a new property and as such is in excellent condition, and very clean.  As is typical of Candlewood properties, don't expect a free breakfast or a pool - they do not have these here.  Very basic services, but excellent for extended stays due to the full kitchen in each room.  I had no problems during my stay.  The bed was firm but comfortable, there were plenty of HD channels available on the flat screen TV, and the A/C worked well.More</t>
@@ -1166,18 +1500,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1221,7 +1549,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1229,27 +1557,19 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1265,7 +1585,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1274,32 +1594,36 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1322,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1331,33 +1655,33 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1369,7 +1693,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1385,7 +1709,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1394,39 +1718,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1442,7 +1774,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1451,49 +1783,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1518,49 +1840,45 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
       </c>
       <c r="O8" t="s">
         <v>60</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1576,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1585,39 +1903,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1633,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1642,47 +1964,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" t="s">
-        <v>115</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +2018,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1707,43 +2027,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -1759,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1768,43 +2084,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
         <v>119</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>120</v>
       </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1820,7 +2142,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1829,49 +2151,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1887,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1896,49 +2212,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -1954,7 +2256,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1963,49 +2265,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2021,7 +2323,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2030,49 +2332,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>152</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2088,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2097,49 +2389,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>155</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
       </c>
       <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X17" t="s">
+        <v>157</v>
+      </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -2178,24 +2468,18 @@
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2218,7 +2502,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2227,49 +2511,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2285,7 +2559,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2294,38 +2568,32 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2336,7 +2604,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -2364,40 +2632,40 @@
         <v>177</v>
       </c>
       <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s">
-        <v>180</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>182</v>
-      </c>
-      <c r="X21" t="s">
-        <v>183</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
@@ -2413,7 +2681,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2422,49 +2690,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -2480,7 +2748,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2489,53 +2757,1184 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="J23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>196</v>
-      </c>
-      <c r="O23" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
         <v>197</v>
       </c>
-      <c r="X23" t="s">
+      <c r="L24" t="s">
         <v>198</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>233</v>
+      </c>
+      <c r="X29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>241</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>279</v>
+      </c>
+      <c r="X36" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>279</v>
+      </c>
+      <c r="X37" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60636</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" t="s">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s">
+        <v>307</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>308</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>300</v>
+      </c>
+      <c r="X40" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
